--- a/manual_epg.xlsx
+++ b/manual_epg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="53">
   <si>
     <t>ID_Day_Item</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>start_year</t>
+  </si>
+  <si>
+    <t>کچاپ</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P181"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182:P193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9605,6 +9608,606 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2000</v>
+      </c>
+      <c r="B182" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D182" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>44</v>
+      </c>
+      <c r="K182" t="s">
+        <v>52</v>
+      </c>
+      <c r="L182" t="s">
+        <v>11</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2001</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D183" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G183" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>44</v>
+      </c>
+      <c r="K183" t="s">
+        <v>52</v>
+      </c>
+      <c r="L183" t="s">
+        <v>11</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2002</v>
+      </c>
+      <c r="B184" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D184" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G184" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>44</v>
+      </c>
+      <c r="K184" t="s">
+        <v>52</v>
+      </c>
+      <c r="L184" t="s">
+        <v>11</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2003</v>
+      </c>
+      <c r="B185" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D185" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>44</v>
+      </c>
+      <c r="K185" t="s">
+        <v>52</v>
+      </c>
+      <c r="L185" t="s">
+        <v>11</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2004</v>
+      </c>
+      <c r="B186" t="s">
+        <v>32</v>
+      </c>
+      <c r="C186" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D186" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G186" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>44</v>
+      </c>
+      <c r="K186" t="s">
+        <v>52</v>
+      </c>
+      <c r="L186" t="s">
+        <v>11</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2005</v>
+      </c>
+      <c r="B187" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D187" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>44</v>
+      </c>
+      <c r="K187" t="s">
+        <v>52</v>
+      </c>
+      <c r="L187" t="s">
+        <v>11</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2006</v>
+      </c>
+      <c r="B188" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>44</v>
+      </c>
+      <c r="K188" t="s">
+        <v>52</v>
+      </c>
+      <c r="L188" t="s">
+        <v>11</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2007</v>
+      </c>
+      <c r="B189" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>44</v>
+      </c>
+      <c r="K189" t="s">
+        <v>52</v>
+      </c>
+      <c r="L189" t="s">
+        <v>11</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2008</v>
+      </c>
+      <c r="B190" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>44</v>
+      </c>
+      <c r="K190" t="s">
+        <v>52</v>
+      </c>
+      <c r="L190" t="s">
+        <v>11</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2009</v>
+      </c>
+      <c r="B191" t="s">
+        <v>37</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G191" t="s">
+        <v>14</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>44</v>
+      </c>
+      <c r="K191" t="s">
+        <v>52</v>
+      </c>
+      <c r="L191" t="s">
+        <v>11</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2010</v>
+      </c>
+      <c r="B192" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G192" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>44</v>
+      </c>
+      <c r="K192" t="s">
+        <v>52</v>
+      </c>
+      <c r="L192" t="s">
+        <v>11</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2011</v>
+      </c>
+      <c r="B193" t="s">
+        <v>39</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G193" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>44</v>
+      </c>
+      <c r="K193" t="s">
+        <v>52</v>
+      </c>
+      <c r="L193" t="s">
+        <v>11</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/manual_epg.xlsx
+++ b/manual_epg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="57">
   <si>
     <t>ID_Day_Item</t>
   </si>
@@ -177,7 +177,19 @@
     <t>start_year</t>
   </si>
   <si>
-    <t>کچاپ</t>
+    <t>ایام</t>
+  </si>
+  <si>
+    <t>آرا</t>
+  </si>
+  <si>
+    <t>حبیب</t>
+  </si>
+  <si>
+    <t>سپهر</t>
+  </si>
+  <si>
+    <t>دو - HD</t>
   </si>
 </sst>
 </file>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:P193"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="J243" sqref="J243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10208,6 +10220,2406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2000</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D194" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>44</v>
+      </c>
+      <c r="K194" t="s">
+        <v>53</v>
+      </c>
+      <c r="L194" t="s">
+        <v>11</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2001</v>
+      </c>
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D195" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" t="s">
+        <v>14</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>44</v>
+      </c>
+      <c r="K195" t="s">
+        <v>53</v>
+      </c>
+      <c r="L195" t="s">
+        <v>11</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2002</v>
+      </c>
+      <c r="B196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D196" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>44</v>
+      </c>
+      <c r="K196" t="s">
+        <v>53</v>
+      </c>
+      <c r="L196" t="s">
+        <v>11</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2003</v>
+      </c>
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D197" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>44</v>
+      </c>
+      <c r="K197" t="s">
+        <v>53</v>
+      </c>
+      <c r="L197" t="s">
+        <v>11</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2004</v>
+      </c>
+      <c r="B198" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D198" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>44</v>
+      </c>
+      <c r="K198" t="s">
+        <v>53</v>
+      </c>
+      <c r="L198" t="s">
+        <v>11</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2005</v>
+      </c>
+      <c r="B199" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D199" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>44</v>
+      </c>
+      <c r="K199" t="s">
+        <v>53</v>
+      </c>
+      <c r="L199" t="s">
+        <v>11</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2006</v>
+      </c>
+      <c r="B200" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>44</v>
+      </c>
+      <c r="K200" t="s">
+        <v>53</v>
+      </c>
+      <c r="L200" t="s">
+        <v>11</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2007</v>
+      </c>
+      <c r="B201" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>44</v>
+      </c>
+      <c r="K201" t="s">
+        <v>53</v>
+      </c>
+      <c r="L201" t="s">
+        <v>11</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2008</v>
+      </c>
+      <c r="B202" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>44</v>
+      </c>
+      <c r="K202" t="s">
+        <v>53</v>
+      </c>
+      <c r="L202" t="s">
+        <v>11</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2009</v>
+      </c>
+      <c r="B203" t="s">
+        <v>37</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>44</v>
+      </c>
+      <c r="K203" t="s">
+        <v>53</v>
+      </c>
+      <c r="L203" t="s">
+        <v>11</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2010</v>
+      </c>
+      <c r="B204" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>44</v>
+      </c>
+      <c r="K204" t="s">
+        <v>53</v>
+      </c>
+      <c r="L204" t="s">
+        <v>11</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2011</v>
+      </c>
+      <c r="B205" t="s">
+        <v>39</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>44</v>
+      </c>
+      <c r="K205" t="s">
+        <v>53</v>
+      </c>
+      <c r="L205" t="s">
+        <v>11</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2000</v>
+      </c>
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G206" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" t="s">
+        <v>14</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>44</v>
+      </c>
+      <c r="K206" t="s">
+        <v>54</v>
+      </c>
+      <c r="L206" t="s">
+        <v>11</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2001</v>
+      </c>
+      <c r="B207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D207" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G207" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>44</v>
+      </c>
+      <c r="K207" t="s">
+        <v>54</v>
+      </c>
+      <c r="L207" t="s">
+        <v>11</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2002</v>
+      </c>
+      <c r="B208" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D208" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>44</v>
+      </c>
+      <c r="K208" t="s">
+        <v>54</v>
+      </c>
+      <c r="L208" t="s">
+        <v>11</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2003</v>
+      </c>
+      <c r="B209" t="s">
+        <v>31</v>
+      </c>
+      <c r="C209" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D209" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G209" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>44</v>
+      </c>
+      <c r="K209" t="s">
+        <v>54</v>
+      </c>
+      <c r="L209" t="s">
+        <v>11</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2004</v>
+      </c>
+      <c r="B210" t="s">
+        <v>32</v>
+      </c>
+      <c r="C210" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D210" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G210" t="s">
+        <v>14</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>44</v>
+      </c>
+      <c r="K210" t="s">
+        <v>54</v>
+      </c>
+      <c r="L210" t="s">
+        <v>11</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2005</v>
+      </c>
+      <c r="B211" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D211" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>44</v>
+      </c>
+      <c r="K211" t="s">
+        <v>54</v>
+      </c>
+      <c r="L211" t="s">
+        <v>11</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2006</v>
+      </c>
+      <c r="B212" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G212" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>44</v>
+      </c>
+      <c r="K212" t="s">
+        <v>54</v>
+      </c>
+      <c r="L212" t="s">
+        <v>11</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2007</v>
+      </c>
+      <c r="B213" t="s">
+        <v>35</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>44</v>
+      </c>
+      <c r="K213" t="s">
+        <v>54</v>
+      </c>
+      <c r="L213" t="s">
+        <v>11</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2008</v>
+      </c>
+      <c r="B214" t="s">
+        <v>36</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E214" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>44</v>
+      </c>
+      <c r="K214" t="s">
+        <v>54</v>
+      </c>
+      <c r="L214" t="s">
+        <v>11</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2009</v>
+      </c>
+      <c r="B215" t="s">
+        <v>37</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D215" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G215" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>44</v>
+      </c>
+      <c r="K215" t="s">
+        <v>54</v>
+      </c>
+      <c r="L215" t="s">
+        <v>11</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2010</v>
+      </c>
+      <c r="B216" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>44</v>
+      </c>
+      <c r="K216" t="s">
+        <v>54</v>
+      </c>
+      <c r="L216" t="s">
+        <v>11</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2011</v>
+      </c>
+      <c r="B217" t="s">
+        <v>39</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>44</v>
+      </c>
+      <c r="K217" t="s">
+        <v>54</v>
+      </c>
+      <c r="L217" t="s">
+        <v>11</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2000</v>
+      </c>
+      <c r="B218" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D218" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>44</v>
+      </c>
+      <c r="K218" t="s">
+        <v>55</v>
+      </c>
+      <c r="L218" t="s">
+        <v>11</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2001</v>
+      </c>
+      <c r="B219" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D219" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>44</v>
+      </c>
+      <c r="K219" t="s">
+        <v>55</v>
+      </c>
+      <c r="L219" t="s">
+        <v>11</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2002</v>
+      </c>
+      <c r="B220" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D220" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>44</v>
+      </c>
+      <c r="K220" t="s">
+        <v>55</v>
+      </c>
+      <c r="L220" t="s">
+        <v>11</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2003</v>
+      </c>
+      <c r="B221" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D221" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G221" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>44</v>
+      </c>
+      <c r="K221" t="s">
+        <v>55</v>
+      </c>
+      <c r="L221" t="s">
+        <v>11</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2004</v>
+      </c>
+      <c r="B222" t="s">
+        <v>32</v>
+      </c>
+      <c r="C222" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D222" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G222" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>44</v>
+      </c>
+      <c r="K222" t="s">
+        <v>55</v>
+      </c>
+      <c r="L222" t="s">
+        <v>11</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2005</v>
+      </c>
+      <c r="B223" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D223" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>44</v>
+      </c>
+      <c r="K223" t="s">
+        <v>55</v>
+      </c>
+      <c r="L223" t="s">
+        <v>11</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2006</v>
+      </c>
+      <c r="B224" t="s">
+        <v>34</v>
+      </c>
+      <c r="C224" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>44</v>
+      </c>
+      <c r="K224" t="s">
+        <v>55</v>
+      </c>
+      <c r="L224" t="s">
+        <v>11</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2007</v>
+      </c>
+      <c r="B225" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E225" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G225" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>44</v>
+      </c>
+      <c r="K225" t="s">
+        <v>55</v>
+      </c>
+      <c r="L225" t="s">
+        <v>11</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2008</v>
+      </c>
+      <c r="B226" t="s">
+        <v>36</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G226" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>44</v>
+      </c>
+      <c r="K226" t="s">
+        <v>55</v>
+      </c>
+      <c r="L226" t="s">
+        <v>11</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2009</v>
+      </c>
+      <c r="B227" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D227" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>44</v>
+      </c>
+      <c r="K227" t="s">
+        <v>55</v>
+      </c>
+      <c r="L227" t="s">
+        <v>11</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2010</v>
+      </c>
+      <c r="B228" t="s">
+        <v>38</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E228" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>44</v>
+      </c>
+      <c r="K228" t="s">
+        <v>55</v>
+      </c>
+      <c r="L228" t="s">
+        <v>11</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2011</v>
+      </c>
+      <c r="B229" t="s">
+        <v>39</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>44</v>
+      </c>
+      <c r="K229" t="s">
+        <v>55</v>
+      </c>
+      <c r="L229" t="s">
+        <v>11</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2000</v>
+      </c>
+      <c r="B230" t="s">
+        <v>28</v>
+      </c>
+      <c r="C230" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D230" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G230" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>44</v>
+      </c>
+      <c r="K230" t="s">
+        <v>56</v>
+      </c>
+      <c r="L230" t="s">
+        <v>11</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2001</v>
+      </c>
+      <c r="B231" t="s">
+        <v>29</v>
+      </c>
+      <c r="C231" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D231" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>44</v>
+      </c>
+      <c r="K231" t="s">
+        <v>56</v>
+      </c>
+      <c r="L231" t="s">
+        <v>11</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2002</v>
+      </c>
+      <c r="B232" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D232" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>44</v>
+      </c>
+      <c r="K232" t="s">
+        <v>56</v>
+      </c>
+      <c r="L232" t="s">
+        <v>11</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2003</v>
+      </c>
+      <c r="B233" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D233" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>44</v>
+      </c>
+      <c r="K233" t="s">
+        <v>56</v>
+      </c>
+      <c r="L233" t="s">
+        <v>11</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2004</v>
+      </c>
+      <c r="B234" t="s">
+        <v>32</v>
+      </c>
+      <c r="C234" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D234" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>44</v>
+      </c>
+      <c r="K234" t="s">
+        <v>56</v>
+      </c>
+      <c r="L234" t="s">
+        <v>11</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2005</v>
+      </c>
+      <c r="B235" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D235" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E235" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>44</v>
+      </c>
+      <c r="K235" t="s">
+        <v>56</v>
+      </c>
+      <c r="L235" t="s">
+        <v>11</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2006</v>
+      </c>
+      <c r="B236" t="s">
+        <v>34</v>
+      </c>
+      <c r="C236" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G236" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>44</v>
+      </c>
+      <c r="K236" t="s">
+        <v>56</v>
+      </c>
+      <c r="L236" t="s">
+        <v>11</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2007</v>
+      </c>
+      <c r="B237" t="s">
+        <v>35</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G237" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" t="s">
+        <v>14</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>44</v>
+      </c>
+      <c r="K237" t="s">
+        <v>56</v>
+      </c>
+      <c r="L237" t="s">
+        <v>11</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2008</v>
+      </c>
+      <c r="B238" t="s">
+        <v>36</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" t="s">
+        <v>14</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>44</v>
+      </c>
+      <c r="K238" t="s">
+        <v>56</v>
+      </c>
+      <c r="L238" t="s">
+        <v>11</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2009</v>
+      </c>
+      <c r="B239" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D239" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G239" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" t="s">
+        <v>14</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>44</v>
+      </c>
+      <c r="K239" t="s">
+        <v>56</v>
+      </c>
+      <c r="L239" t="s">
+        <v>11</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2010</v>
+      </c>
+      <c r="B240" t="s">
+        <v>38</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G240" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" t="s">
+        <v>14</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>44</v>
+      </c>
+      <c r="K240" t="s">
+        <v>56</v>
+      </c>
+      <c r="L240" t="s">
+        <v>11</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2011</v>
+      </c>
+      <c r="B241" t="s">
+        <v>39</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" t="s">
+        <v>14</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>44</v>
+      </c>
+      <c r="K241" t="s">
+        <v>56</v>
+      </c>
+      <c r="L241" t="s">
+        <v>11</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/manual_epg.xlsx
+++ b/manual_epg.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$P$241</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="64">
   <si>
     <t>ID_Day_Item</t>
   </si>
@@ -180,9 +183,6 @@
     <t>ایام</t>
   </si>
   <si>
-    <t>آرا</t>
-  </si>
-  <si>
     <t>حبیب</t>
   </si>
   <si>
@@ -190,6 +190,30 @@
   </si>
   <si>
     <t>دو - HD</t>
+  </si>
+  <si>
+    <t>آرا - HD</t>
+  </si>
+  <si>
+    <t>جوانه - HD</t>
+  </si>
+  <si>
+    <t>جام - HD</t>
+  </si>
+  <si>
+    <t>نما - HD</t>
+  </si>
+  <si>
+    <t>نوا - HD</t>
+  </si>
+  <si>
+    <t>لبیک</t>
+  </si>
+  <si>
+    <t>شمس</t>
+  </si>
+  <si>
+    <t>دانشگاه تهران</t>
   </si>
 </sst>
 </file>
@@ -554,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P241"/>
+  <dimension ref="A1:P325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="J243" sqref="J243"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10252,7 +10276,7 @@
         <v>44</v>
       </c>
       <c r="K194" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L194" t="s">
         <v>11</v>
@@ -10302,7 +10326,7 @@
         <v>44</v>
       </c>
       <c r="K195" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L195" t="s">
         <v>11</v>
@@ -10352,7 +10376,7 @@
         <v>44</v>
       </c>
       <c r="K196" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L196" t="s">
         <v>11</v>
@@ -10402,7 +10426,7 @@
         <v>44</v>
       </c>
       <c r="K197" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L197" t="s">
         <v>11</v>
@@ -10452,7 +10476,7 @@
         <v>44</v>
       </c>
       <c r="K198" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L198" t="s">
         <v>11</v>
@@ -10502,7 +10526,7 @@
         <v>44</v>
       </c>
       <c r="K199" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L199" t="s">
         <v>11</v>
@@ -10552,7 +10576,7 @@
         <v>44</v>
       </c>
       <c r="K200" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L200" t="s">
         <v>11</v>
@@ -10602,7 +10626,7 @@
         <v>44</v>
       </c>
       <c r="K201" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L201" t="s">
         <v>11</v>
@@ -10652,7 +10676,7 @@
         <v>44</v>
       </c>
       <c r="K202" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L202" t="s">
         <v>11</v>
@@ -10702,7 +10726,7 @@
         <v>44</v>
       </c>
       <c r="K203" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L203" t="s">
         <v>11</v>
@@ -10752,7 +10776,7 @@
         <v>44</v>
       </c>
       <c r="K204" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L204" t="s">
         <v>11</v>
@@ -10802,7 +10826,7 @@
         <v>44</v>
       </c>
       <c r="K205" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L205" t="s">
         <v>11</v>
@@ -10852,7 +10876,7 @@
         <v>44</v>
       </c>
       <c r="K206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L206" t="s">
         <v>11</v>
@@ -10902,7 +10926,7 @@
         <v>44</v>
       </c>
       <c r="K207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L207" t="s">
         <v>11</v>
@@ -10952,7 +10976,7 @@
         <v>44</v>
       </c>
       <c r="K208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L208" t="s">
         <v>11</v>
@@ -11002,7 +11026,7 @@
         <v>44</v>
       </c>
       <c r="K209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L209" t="s">
         <v>11</v>
@@ -11052,7 +11076,7 @@
         <v>44</v>
       </c>
       <c r="K210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L210" t="s">
         <v>11</v>
@@ -11102,7 +11126,7 @@
         <v>44</v>
       </c>
       <c r="K211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L211" t="s">
         <v>11</v>
@@ -11152,7 +11176,7 @@
         <v>44</v>
       </c>
       <c r="K212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L212" t="s">
         <v>11</v>
@@ -11202,7 +11226,7 @@
         <v>44</v>
       </c>
       <c r="K213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L213" t="s">
         <v>11</v>
@@ -11252,7 +11276,7 @@
         <v>44</v>
       </c>
       <c r="K214" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L214" t="s">
         <v>11</v>
@@ -11302,7 +11326,7 @@
         <v>44</v>
       </c>
       <c r="K215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L215" t="s">
         <v>11</v>
@@ -11352,7 +11376,7 @@
         <v>44</v>
       </c>
       <c r="K216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L216" t="s">
         <v>11</v>
@@ -11402,7 +11426,7 @@
         <v>44</v>
       </c>
       <c r="K217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L217" t="s">
         <v>11</v>
@@ -11452,7 +11476,7 @@
         <v>44</v>
       </c>
       <c r="K218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L218" t="s">
         <v>11</v>
@@ -11502,7 +11526,7 @@
         <v>44</v>
       </c>
       <c r="K219" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L219" t="s">
         <v>11</v>
@@ -11552,7 +11576,7 @@
         <v>44</v>
       </c>
       <c r="K220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L220" t="s">
         <v>11</v>
@@ -11602,7 +11626,7 @@
         <v>44</v>
       </c>
       <c r="K221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L221" t="s">
         <v>11</v>
@@ -11652,7 +11676,7 @@
         <v>44</v>
       </c>
       <c r="K222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L222" t="s">
         <v>11</v>
@@ -11702,7 +11726,7 @@
         <v>44</v>
       </c>
       <c r="K223" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L223" t="s">
         <v>11</v>
@@ -11752,7 +11776,7 @@
         <v>44</v>
       </c>
       <c r="K224" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L224" t="s">
         <v>11</v>
@@ -11802,7 +11826,7 @@
         <v>44</v>
       </c>
       <c r="K225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L225" t="s">
         <v>11</v>
@@ -11852,7 +11876,7 @@
         <v>44</v>
       </c>
       <c r="K226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L226" t="s">
         <v>11</v>
@@ -11902,7 +11926,7 @@
         <v>44</v>
       </c>
       <c r="K227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L227" t="s">
         <v>11</v>
@@ -11952,7 +11976,7 @@
         <v>44</v>
       </c>
       <c r="K228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L228" t="s">
         <v>11</v>
@@ -12002,7 +12026,7 @@
         <v>44</v>
       </c>
       <c r="K229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L229" t="s">
         <v>11</v>
@@ -12052,7 +12076,7 @@
         <v>44</v>
       </c>
       <c r="K230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L230" t="s">
         <v>11</v>
@@ -12102,7 +12126,7 @@
         <v>44</v>
       </c>
       <c r="K231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L231" t="s">
         <v>11</v>
@@ -12152,7 +12176,7 @@
         <v>44</v>
       </c>
       <c r="K232" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L232" t="s">
         <v>11</v>
@@ -12202,7 +12226,7 @@
         <v>44</v>
       </c>
       <c r="K233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L233" t="s">
         <v>11</v>
@@ -12252,7 +12276,7 @@
         <v>44</v>
       </c>
       <c r="K234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L234" t="s">
         <v>11</v>
@@ -12302,7 +12326,7 @@
         <v>44</v>
       </c>
       <c r="K235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L235" t="s">
         <v>11</v>
@@ -12352,7 +12376,7 @@
         <v>44</v>
       </c>
       <c r="K236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L236" t="s">
         <v>11</v>
@@ -12402,7 +12426,7 @@
         <v>44</v>
       </c>
       <c r="K237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L237" t="s">
         <v>11</v>
@@ -12452,7 +12476,7 @@
         <v>44</v>
       </c>
       <c r="K238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L238" t="s">
         <v>11</v>
@@ -12502,7 +12526,7 @@
         <v>44</v>
       </c>
       <c r="K239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L239" t="s">
         <v>11</v>
@@ -12552,7 +12576,7 @@
         <v>44</v>
       </c>
       <c r="K240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L240" t="s">
         <v>11</v>
@@ -12602,7 +12626,7 @@
         <v>44</v>
       </c>
       <c r="K241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L241" t="s">
         <v>11</v>
@@ -12620,7 +12644,4208 @@
         <v>0</v>
       </c>
     </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2000</v>
+      </c>
+      <c r="B242" t="s">
+        <v>28</v>
+      </c>
+      <c r="C242" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D242" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G242" t="s">
+        <v>14</v>
+      </c>
+      <c r="H242" t="s">
+        <v>14</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>44</v>
+      </c>
+      <c r="K242" t="s">
+        <v>57</v>
+      </c>
+      <c r="L242" t="s">
+        <v>11</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2001</v>
+      </c>
+      <c r="B243" t="s">
+        <v>29</v>
+      </c>
+      <c r="C243" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D243" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G243" t="s">
+        <v>14</v>
+      </c>
+      <c r="H243" t="s">
+        <v>14</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>44</v>
+      </c>
+      <c r="K243" t="s">
+        <v>57</v>
+      </c>
+      <c r="L243" t="s">
+        <v>11</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2002</v>
+      </c>
+      <c r="B244" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D244" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G244" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" t="s">
+        <v>14</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>44</v>
+      </c>
+      <c r="K244" t="s">
+        <v>57</v>
+      </c>
+      <c r="L244" t="s">
+        <v>11</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2003</v>
+      </c>
+      <c r="B245" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D245" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G245" t="s">
+        <v>14</v>
+      </c>
+      <c r="H245" t="s">
+        <v>14</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>44</v>
+      </c>
+      <c r="K245" t="s">
+        <v>57</v>
+      </c>
+      <c r="L245" t="s">
+        <v>11</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2004</v>
+      </c>
+      <c r="B246" t="s">
+        <v>32</v>
+      </c>
+      <c r="C246" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D246" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G246" t="s">
+        <v>14</v>
+      </c>
+      <c r="H246" t="s">
+        <v>14</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>44</v>
+      </c>
+      <c r="K246" t="s">
+        <v>57</v>
+      </c>
+      <c r="L246" t="s">
+        <v>11</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2005</v>
+      </c>
+      <c r="B247" t="s">
+        <v>33</v>
+      </c>
+      <c r="C247" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D247" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G247" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>44</v>
+      </c>
+      <c r="K247" t="s">
+        <v>57</v>
+      </c>
+      <c r="L247" t="s">
+        <v>11</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2006</v>
+      </c>
+      <c r="B248" t="s">
+        <v>34</v>
+      </c>
+      <c r="C248" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G248" t="s">
+        <v>14</v>
+      </c>
+      <c r="H248" t="s">
+        <v>14</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>44</v>
+      </c>
+      <c r="K248" t="s">
+        <v>57</v>
+      </c>
+      <c r="L248" t="s">
+        <v>11</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2007</v>
+      </c>
+      <c r="B249" t="s">
+        <v>35</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G249" t="s">
+        <v>14</v>
+      </c>
+      <c r="H249" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>44</v>
+      </c>
+      <c r="K249" t="s">
+        <v>57</v>
+      </c>
+      <c r="L249" t="s">
+        <v>11</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2008</v>
+      </c>
+      <c r="B250" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E250" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>44</v>
+      </c>
+      <c r="K250" t="s">
+        <v>57</v>
+      </c>
+      <c r="L250" t="s">
+        <v>11</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2009</v>
+      </c>
+      <c r="B251" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D251" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>14</v>
+      </c>
+      <c r="H251" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>44</v>
+      </c>
+      <c r="K251" t="s">
+        <v>57</v>
+      </c>
+      <c r="L251" t="s">
+        <v>11</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2010</v>
+      </c>
+      <c r="B252" t="s">
+        <v>38</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>44</v>
+      </c>
+      <c r="K252" t="s">
+        <v>57</v>
+      </c>
+      <c r="L252" t="s">
+        <v>11</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2011</v>
+      </c>
+      <c r="B253" t="s">
+        <v>39</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E253" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>44</v>
+      </c>
+      <c r="K253" t="s">
+        <v>57</v>
+      </c>
+      <c r="L253" t="s">
+        <v>11</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2000</v>
+      </c>
+      <c r="B254" t="s">
+        <v>28</v>
+      </c>
+      <c r="C254" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D254" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G254" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" t="s">
+        <v>14</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>44</v>
+      </c>
+      <c r="K254" t="s">
+        <v>58</v>
+      </c>
+      <c r="L254" t="s">
+        <v>11</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2001</v>
+      </c>
+      <c r="B255" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D255" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G255" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" t="s">
+        <v>14</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>44</v>
+      </c>
+      <c r="K255" t="s">
+        <v>58</v>
+      </c>
+      <c r="L255" t="s">
+        <v>11</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2002</v>
+      </c>
+      <c r="B256" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D256" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G256" t="s">
+        <v>14</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>44</v>
+      </c>
+      <c r="K256" t="s">
+        <v>58</v>
+      </c>
+      <c r="L256" t="s">
+        <v>11</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2003</v>
+      </c>
+      <c r="B257" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D257" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G257" t="s">
+        <v>14</v>
+      </c>
+      <c r="H257" t="s">
+        <v>14</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>44</v>
+      </c>
+      <c r="K257" t="s">
+        <v>58</v>
+      </c>
+      <c r="L257" t="s">
+        <v>11</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2004</v>
+      </c>
+      <c r="B258" t="s">
+        <v>32</v>
+      </c>
+      <c r="C258" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D258" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G258" t="s">
+        <v>14</v>
+      </c>
+      <c r="H258" t="s">
+        <v>14</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>44</v>
+      </c>
+      <c r="K258" t="s">
+        <v>58</v>
+      </c>
+      <c r="L258" t="s">
+        <v>11</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2005</v>
+      </c>
+      <c r="B259" t="s">
+        <v>33</v>
+      </c>
+      <c r="C259" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D259" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G259" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>44</v>
+      </c>
+      <c r="K259" t="s">
+        <v>58</v>
+      </c>
+      <c r="L259" t="s">
+        <v>11</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2006</v>
+      </c>
+      <c r="B260" t="s">
+        <v>34</v>
+      </c>
+      <c r="C260" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G260" t="s">
+        <v>14</v>
+      </c>
+      <c r="H260" t="s">
+        <v>14</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>44</v>
+      </c>
+      <c r="K260" t="s">
+        <v>58</v>
+      </c>
+      <c r="L260" t="s">
+        <v>11</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2007</v>
+      </c>
+      <c r="B261" t="s">
+        <v>35</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G261" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>44</v>
+      </c>
+      <c r="K261" t="s">
+        <v>58</v>
+      </c>
+      <c r="L261" t="s">
+        <v>11</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2008</v>
+      </c>
+      <c r="B262" t="s">
+        <v>36</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G262" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" t="s">
+        <v>14</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>44</v>
+      </c>
+      <c r="K262" t="s">
+        <v>58</v>
+      </c>
+      <c r="L262" t="s">
+        <v>11</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2009</v>
+      </c>
+      <c r="B263" t="s">
+        <v>37</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D263" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G263" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>44</v>
+      </c>
+      <c r="K263" t="s">
+        <v>58</v>
+      </c>
+      <c r="L263" t="s">
+        <v>11</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2010</v>
+      </c>
+      <c r="B264" t="s">
+        <v>38</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G264" t="s">
+        <v>14</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>44</v>
+      </c>
+      <c r="K264" t="s">
+        <v>58</v>
+      </c>
+      <c r="L264" t="s">
+        <v>11</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2011</v>
+      </c>
+      <c r="B265" t="s">
+        <v>39</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G265" t="s">
+        <v>14</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>44</v>
+      </c>
+      <c r="K265" t="s">
+        <v>58</v>
+      </c>
+      <c r="L265" t="s">
+        <v>11</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2000</v>
+      </c>
+      <c r="B266" t="s">
+        <v>28</v>
+      </c>
+      <c r="C266" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D266" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E266" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G266" t="s">
+        <v>14</v>
+      </c>
+      <c r="H266" t="s">
+        <v>14</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>44</v>
+      </c>
+      <c r="K266" t="s">
+        <v>59</v>
+      </c>
+      <c r="L266" t="s">
+        <v>11</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2001</v>
+      </c>
+      <c r="B267" t="s">
+        <v>29</v>
+      </c>
+      <c r="C267" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D267" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E267" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G267" t="s">
+        <v>14</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>44</v>
+      </c>
+      <c r="K267" t="s">
+        <v>59</v>
+      </c>
+      <c r="L267" t="s">
+        <v>11</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2002</v>
+      </c>
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+      <c r="C268" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D268" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G268" t="s">
+        <v>14</v>
+      </c>
+      <c r="H268" t="s">
+        <v>14</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>44</v>
+      </c>
+      <c r="K268" t="s">
+        <v>59</v>
+      </c>
+      <c r="L268" t="s">
+        <v>11</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2003</v>
+      </c>
+      <c r="B269" t="s">
+        <v>31</v>
+      </c>
+      <c r="C269" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D269" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E269" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G269" t="s">
+        <v>14</v>
+      </c>
+      <c r="H269" t="s">
+        <v>14</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>44</v>
+      </c>
+      <c r="K269" t="s">
+        <v>59</v>
+      </c>
+      <c r="L269" t="s">
+        <v>11</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2004</v>
+      </c>
+      <c r="B270" t="s">
+        <v>32</v>
+      </c>
+      <c r="C270" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D270" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G270" t="s">
+        <v>14</v>
+      </c>
+      <c r="H270" t="s">
+        <v>14</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>44</v>
+      </c>
+      <c r="K270" t="s">
+        <v>59</v>
+      </c>
+      <c r="L270" t="s">
+        <v>11</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2005</v>
+      </c>
+      <c r="B271" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D271" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G271" t="s">
+        <v>14</v>
+      </c>
+      <c r="H271" t="s">
+        <v>14</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>44</v>
+      </c>
+      <c r="K271" t="s">
+        <v>59</v>
+      </c>
+      <c r="L271" t="s">
+        <v>11</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2006</v>
+      </c>
+      <c r="B272" t="s">
+        <v>34</v>
+      </c>
+      <c r="C272" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G272" t="s">
+        <v>14</v>
+      </c>
+      <c r="H272" t="s">
+        <v>14</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>44</v>
+      </c>
+      <c r="K272" t="s">
+        <v>59</v>
+      </c>
+      <c r="L272" t="s">
+        <v>11</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2007</v>
+      </c>
+      <c r="B273" t="s">
+        <v>35</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G273" t="s">
+        <v>14</v>
+      </c>
+      <c r="H273" t="s">
+        <v>14</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>44</v>
+      </c>
+      <c r="K273" t="s">
+        <v>59</v>
+      </c>
+      <c r="L273" t="s">
+        <v>11</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2008</v>
+      </c>
+      <c r="B274" t="s">
+        <v>36</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G274" t="s">
+        <v>14</v>
+      </c>
+      <c r="H274" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>44</v>
+      </c>
+      <c r="K274" t="s">
+        <v>59</v>
+      </c>
+      <c r="L274" t="s">
+        <v>11</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2009</v>
+      </c>
+      <c r="B275" t="s">
+        <v>37</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D275" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G275" t="s">
+        <v>14</v>
+      </c>
+      <c r="H275" t="s">
+        <v>14</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>44</v>
+      </c>
+      <c r="K275" t="s">
+        <v>59</v>
+      </c>
+      <c r="L275" t="s">
+        <v>11</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2010</v>
+      </c>
+      <c r="B276" t="s">
+        <v>38</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G276" t="s">
+        <v>14</v>
+      </c>
+      <c r="H276" t="s">
+        <v>14</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>44</v>
+      </c>
+      <c r="K276" t="s">
+        <v>59</v>
+      </c>
+      <c r="L276" t="s">
+        <v>11</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2011</v>
+      </c>
+      <c r="B277" t="s">
+        <v>39</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G277" t="s">
+        <v>14</v>
+      </c>
+      <c r="H277" t="s">
+        <v>14</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>44</v>
+      </c>
+      <c r="K277" t="s">
+        <v>59</v>
+      </c>
+      <c r="L277" t="s">
+        <v>11</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277">
+        <v>0</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2000</v>
+      </c>
+      <c r="B278" t="s">
+        <v>28</v>
+      </c>
+      <c r="C278" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D278" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G278" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" t="s">
+        <v>14</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>44</v>
+      </c>
+      <c r="K278" t="s">
+        <v>60</v>
+      </c>
+      <c r="L278" t="s">
+        <v>11</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2001</v>
+      </c>
+      <c r="B279" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D279" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G279" t="s">
+        <v>14</v>
+      </c>
+      <c r="H279" t="s">
+        <v>14</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>44</v>
+      </c>
+      <c r="K279" t="s">
+        <v>60</v>
+      </c>
+      <c r="L279" t="s">
+        <v>11</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2002</v>
+      </c>
+      <c r="B280" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D280" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G280" t="s">
+        <v>14</v>
+      </c>
+      <c r="H280" t="s">
+        <v>14</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>44</v>
+      </c>
+      <c r="K280" t="s">
+        <v>60</v>
+      </c>
+      <c r="L280" t="s">
+        <v>11</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2003</v>
+      </c>
+      <c r="B281" t="s">
+        <v>31</v>
+      </c>
+      <c r="C281" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D281" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G281" t="s">
+        <v>14</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>44</v>
+      </c>
+      <c r="K281" t="s">
+        <v>60</v>
+      </c>
+      <c r="L281" t="s">
+        <v>11</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2004</v>
+      </c>
+      <c r="B282" t="s">
+        <v>32</v>
+      </c>
+      <c r="C282" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D282" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G282" t="s">
+        <v>14</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>44</v>
+      </c>
+      <c r="K282" t="s">
+        <v>60</v>
+      </c>
+      <c r="L282" t="s">
+        <v>11</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
+      <c r="P282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2005</v>
+      </c>
+      <c r="B283" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D283" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G283" t="s">
+        <v>14</v>
+      </c>
+      <c r="H283" t="s">
+        <v>14</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>44</v>
+      </c>
+      <c r="K283" t="s">
+        <v>60</v>
+      </c>
+      <c r="L283" t="s">
+        <v>11</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2006</v>
+      </c>
+      <c r="B284" t="s">
+        <v>34</v>
+      </c>
+      <c r="C284" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G284" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>44</v>
+      </c>
+      <c r="K284" t="s">
+        <v>60</v>
+      </c>
+      <c r="L284" t="s">
+        <v>11</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2007</v>
+      </c>
+      <c r="B285" t="s">
+        <v>35</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G285" t="s">
+        <v>14</v>
+      </c>
+      <c r="H285" t="s">
+        <v>14</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>44</v>
+      </c>
+      <c r="K285" t="s">
+        <v>60</v>
+      </c>
+      <c r="L285" t="s">
+        <v>11</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2008</v>
+      </c>
+      <c r="B286" t="s">
+        <v>36</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G286" t="s">
+        <v>14</v>
+      </c>
+      <c r="H286" t="s">
+        <v>14</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>44</v>
+      </c>
+      <c r="K286" t="s">
+        <v>60</v>
+      </c>
+      <c r="L286" t="s">
+        <v>11</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2009</v>
+      </c>
+      <c r="B287" t="s">
+        <v>37</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D287" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E287" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G287" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>44</v>
+      </c>
+      <c r="K287" t="s">
+        <v>60</v>
+      </c>
+      <c r="L287" t="s">
+        <v>11</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2010</v>
+      </c>
+      <c r="B288" t="s">
+        <v>38</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E288" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G288" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" t="s">
+        <v>14</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>44</v>
+      </c>
+      <c r="K288" t="s">
+        <v>60</v>
+      </c>
+      <c r="L288" t="s">
+        <v>11</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2011</v>
+      </c>
+      <c r="B289" t="s">
+        <v>39</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G289" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289" t="s">
+        <v>14</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>44</v>
+      </c>
+      <c r="K289" t="s">
+        <v>60</v>
+      </c>
+      <c r="L289" t="s">
+        <v>11</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
+      <c r="P289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2000</v>
+      </c>
+      <c r="B290" t="s">
+        <v>28</v>
+      </c>
+      <c r="C290" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D290" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G290" t="s">
+        <v>14</v>
+      </c>
+      <c r="H290" t="s">
+        <v>14</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>44</v>
+      </c>
+      <c r="K290" t="s">
+        <v>61</v>
+      </c>
+      <c r="L290" t="s">
+        <v>11</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2001</v>
+      </c>
+      <c r="B291" t="s">
+        <v>29</v>
+      </c>
+      <c r="C291" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D291" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G291" t="s">
+        <v>14</v>
+      </c>
+      <c r="H291" t="s">
+        <v>14</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>44</v>
+      </c>
+      <c r="K291" t="s">
+        <v>61</v>
+      </c>
+      <c r="L291" t="s">
+        <v>11</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291">
+        <v>0</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2002</v>
+      </c>
+      <c r="B292" t="s">
+        <v>30</v>
+      </c>
+      <c r="C292" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D292" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G292" t="s">
+        <v>14</v>
+      </c>
+      <c r="H292" t="s">
+        <v>14</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>44</v>
+      </c>
+      <c r="K292" t="s">
+        <v>61</v>
+      </c>
+      <c r="L292" t="s">
+        <v>11</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2003</v>
+      </c>
+      <c r="B293" t="s">
+        <v>31</v>
+      </c>
+      <c r="C293" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D293" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G293" t="s">
+        <v>14</v>
+      </c>
+      <c r="H293" t="s">
+        <v>14</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>44</v>
+      </c>
+      <c r="K293" t="s">
+        <v>61</v>
+      </c>
+      <c r="L293" t="s">
+        <v>11</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293">
+        <v>0</v>
+      </c>
+      <c r="P293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2004</v>
+      </c>
+      <c r="B294" t="s">
+        <v>32</v>
+      </c>
+      <c r="C294" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D294" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G294" t="s">
+        <v>14</v>
+      </c>
+      <c r="H294" t="s">
+        <v>14</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>44</v>
+      </c>
+      <c r="K294" t="s">
+        <v>61</v>
+      </c>
+      <c r="L294" t="s">
+        <v>11</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2005</v>
+      </c>
+      <c r="B295" t="s">
+        <v>33</v>
+      </c>
+      <c r="C295" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D295" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G295" t="s">
+        <v>14</v>
+      </c>
+      <c r="H295" t="s">
+        <v>14</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>44</v>
+      </c>
+      <c r="K295" t="s">
+        <v>61</v>
+      </c>
+      <c r="L295" t="s">
+        <v>11</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2006</v>
+      </c>
+      <c r="B296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C296" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G296" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" t="s">
+        <v>14</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>44</v>
+      </c>
+      <c r="K296" t="s">
+        <v>61</v>
+      </c>
+      <c r="L296" t="s">
+        <v>11</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2007</v>
+      </c>
+      <c r="B297" t="s">
+        <v>35</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E297" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G297" t="s">
+        <v>14</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>44</v>
+      </c>
+      <c r="K297" t="s">
+        <v>61</v>
+      </c>
+      <c r="L297" t="s">
+        <v>11</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2008</v>
+      </c>
+      <c r="B298" t="s">
+        <v>36</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E298" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G298" t="s">
+        <v>14</v>
+      </c>
+      <c r="H298" t="s">
+        <v>14</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>44</v>
+      </c>
+      <c r="K298" t="s">
+        <v>61</v>
+      </c>
+      <c r="L298" t="s">
+        <v>11</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2009</v>
+      </c>
+      <c r="B299" t="s">
+        <v>37</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D299" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G299" t="s">
+        <v>14</v>
+      </c>
+      <c r="H299" t="s">
+        <v>14</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>44</v>
+      </c>
+      <c r="K299" t="s">
+        <v>61</v>
+      </c>
+      <c r="L299" t="s">
+        <v>11</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2010</v>
+      </c>
+      <c r="B300" t="s">
+        <v>38</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G300" t="s">
+        <v>14</v>
+      </c>
+      <c r="H300" t="s">
+        <v>14</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>44</v>
+      </c>
+      <c r="K300" t="s">
+        <v>61</v>
+      </c>
+      <c r="L300" t="s">
+        <v>11</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2011</v>
+      </c>
+      <c r="B301" t="s">
+        <v>39</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G301" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" t="s">
+        <v>14</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>44</v>
+      </c>
+      <c r="K301" t="s">
+        <v>61</v>
+      </c>
+      <c r="L301" t="s">
+        <v>11</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2000</v>
+      </c>
+      <c r="B302" t="s">
+        <v>28</v>
+      </c>
+      <c r="C302" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D302" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E302" t="s">
+        <v>10</v>
+      </c>
+      <c r="F302" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G302" t="s">
+        <v>14</v>
+      </c>
+      <c r="H302" t="s">
+        <v>14</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>44</v>
+      </c>
+      <c r="K302" t="s">
+        <v>62</v>
+      </c>
+      <c r="L302" t="s">
+        <v>11</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2001</v>
+      </c>
+      <c r="B303" t="s">
+        <v>29</v>
+      </c>
+      <c r="C303" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D303" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E303" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G303" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" t="s">
+        <v>14</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>44</v>
+      </c>
+      <c r="K303" t="s">
+        <v>62</v>
+      </c>
+      <c r="L303" t="s">
+        <v>11</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2002</v>
+      </c>
+      <c r="B304" t="s">
+        <v>30</v>
+      </c>
+      <c r="C304" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D304" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E304" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G304" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" t="s">
+        <v>14</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>44</v>
+      </c>
+      <c r="K304" t="s">
+        <v>62</v>
+      </c>
+      <c r="L304" t="s">
+        <v>11</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2003</v>
+      </c>
+      <c r="B305" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D305" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E305" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G305" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" t="s">
+        <v>14</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>44</v>
+      </c>
+      <c r="K305" t="s">
+        <v>62</v>
+      </c>
+      <c r="L305" t="s">
+        <v>11</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2004</v>
+      </c>
+      <c r="B306" t="s">
+        <v>32</v>
+      </c>
+      <c r="C306" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D306" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G306" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" t="s">
+        <v>14</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>44</v>
+      </c>
+      <c r="K306" t="s">
+        <v>62</v>
+      </c>
+      <c r="L306" t="s">
+        <v>11</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2005</v>
+      </c>
+      <c r="B307" t="s">
+        <v>33</v>
+      </c>
+      <c r="C307" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D307" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G307" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" t="s">
+        <v>14</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>44</v>
+      </c>
+      <c r="K307" t="s">
+        <v>62</v>
+      </c>
+      <c r="L307" t="s">
+        <v>11</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2006</v>
+      </c>
+      <c r="B308" t="s">
+        <v>34</v>
+      </c>
+      <c r="C308" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E308" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G308" t="s">
+        <v>14</v>
+      </c>
+      <c r="H308" t="s">
+        <v>14</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>44</v>
+      </c>
+      <c r="K308" t="s">
+        <v>62</v>
+      </c>
+      <c r="L308" t="s">
+        <v>11</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+      <c r="P308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2007</v>
+      </c>
+      <c r="B309" t="s">
+        <v>35</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G309" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" t="s">
+        <v>14</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>44</v>
+      </c>
+      <c r="K309" t="s">
+        <v>62</v>
+      </c>
+      <c r="L309" t="s">
+        <v>11</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
+      <c r="P309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2008</v>
+      </c>
+      <c r="B310" t="s">
+        <v>36</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G310" t="s">
+        <v>14</v>
+      </c>
+      <c r="H310" t="s">
+        <v>14</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>44</v>
+      </c>
+      <c r="K310" t="s">
+        <v>62</v>
+      </c>
+      <c r="L310" t="s">
+        <v>11</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
+      <c r="P310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2009</v>
+      </c>
+      <c r="B311" t="s">
+        <v>37</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D311" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G311" t="s">
+        <v>14</v>
+      </c>
+      <c r="H311" t="s">
+        <v>14</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>44</v>
+      </c>
+      <c r="K311" t="s">
+        <v>62</v>
+      </c>
+      <c r="L311" t="s">
+        <v>11</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2010</v>
+      </c>
+      <c r="B312" t="s">
+        <v>38</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E312" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G312" t="s">
+        <v>14</v>
+      </c>
+      <c r="H312" t="s">
+        <v>14</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>44</v>
+      </c>
+      <c r="K312" t="s">
+        <v>62</v>
+      </c>
+      <c r="L312" t="s">
+        <v>11</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+      <c r="O312">
+        <v>0</v>
+      </c>
+      <c r="P312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2011</v>
+      </c>
+      <c r="B313" t="s">
+        <v>39</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E313" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G313" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" t="s">
+        <v>14</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>44</v>
+      </c>
+      <c r="K313" t="s">
+        <v>62</v>
+      </c>
+      <c r="L313" t="s">
+        <v>11</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2000</v>
+      </c>
+      <c r="B314" t="s">
+        <v>28</v>
+      </c>
+      <c r="C314" s="2">
+        <v>44610.006944444445</v>
+      </c>
+      <c r="D314" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="E314" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G314" t="s">
+        <v>14</v>
+      </c>
+      <c r="H314" t="s">
+        <v>14</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>44</v>
+      </c>
+      <c r="K314" t="s">
+        <v>63</v>
+      </c>
+      <c r="L314" t="s">
+        <v>11</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2001</v>
+      </c>
+      <c r="B315" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" s="2">
+        <v>44610.083333333336</v>
+      </c>
+      <c r="D315" s="2">
+        <v>44610.167349537034</v>
+      </c>
+      <c r="E315" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G315" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" t="s">
+        <v>14</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>44</v>
+      </c>
+      <c r="K315" t="s">
+        <v>63</v>
+      </c>
+      <c r="L315" t="s">
+        <v>11</v>
+      </c>
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
+      <c r="P315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2002</v>
+      </c>
+      <c r="B316" t="s">
+        <v>30</v>
+      </c>
+      <c r="C316" s="2">
+        <v>44610.166666666664</v>
+      </c>
+      <c r="D316" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G316" t="s">
+        <v>14</v>
+      </c>
+      <c r="H316" t="s">
+        <v>14</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>44</v>
+      </c>
+      <c r="K316" t="s">
+        <v>63</v>
+      </c>
+      <c r="L316" t="s">
+        <v>11</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
+      <c r="P316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2003</v>
+      </c>
+      <c r="B317" t="s">
+        <v>31</v>
+      </c>
+      <c r="C317" s="2">
+        <v>44610.25</v>
+      </c>
+      <c r="D317" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="E317" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G317" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" t="s">
+        <v>14</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>44</v>
+      </c>
+      <c r="K317" t="s">
+        <v>63</v>
+      </c>
+      <c r="L317" t="s">
+        <v>11</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+      <c r="O317">
+        <v>0</v>
+      </c>
+      <c r="P317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2004</v>
+      </c>
+      <c r="B318" t="s">
+        <v>32</v>
+      </c>
+      <c r="C318" s="2">
+        <v>44610.333333333336</v>
+      </c>
+      <c r="D318" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="E318" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G318" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" t="s">
+        <v>14</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>44</v>
+      </c>
+      <c r="K318" t="s">
+        <v>63</v>
+      </c>
+      <c r="L318" t="s">
+        <v>11</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
+      <c r="P318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2005</v>
+      </c>
+      <c r="B319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319" s="2">
+        <v>44610.416666666664</v>
+      </c>
+      <c r="D319" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="E319" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G319" t="s">
+        <v>14</v>
+      </c>
+      <c r="H319" t="s">
+        <v>14</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>44</v>
+      </c>
+      <c r="K319" t="s">
+        <v>63</v>
+      </c>
+      <c r="L319" t="s">
+        <v>11</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+      <c r="O319">
+        <v>0</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2006</v>
+      </c>
+      <c r="B320" t="s">
+        <v>34</v>
+      </c>
+      <c r="C320" s="2">
+        <v>44610.5</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G320" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" t="s">
+        <v>14</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>44</v>
+      </c>
+      <c r="K320" t="s">
+        <v>63</v>
+      </c>
+      <c r="L320" t="s">
+        <v>11</v>
+      </c>
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
+      <c r="P320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2007</v>
+      </c>
+      <c r="B321" t="s">
+        <v>35</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G321" t="s">
+        <v>14</v>
+      </c>
+      <c r="H321" t="s">
+        <v>14</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>44</v>
+      </c>
+      <c r="K321" t="s">
+        <v>63</v>
+      </c>
+      <c r="L321" t="s">
+        <v>11</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+      <c r="P321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2008</v>
+      </c>
+      <c r="B322" t="s">
+        <v>36</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G322" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" t="s">
+        <v>14</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>44</v>
+      </c>
+      <c r="K322" t="s">
+        <v>63</v>
+      </c>
+      <c r="L322" t="s">
+        <v>11</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>0</v>
+      </c>
+      <c r="P322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2009</v>
+      </c>
+      <c r="B323" t="s">
+        <v>37</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D323" s="2">
+        <v>44610.993738425925</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G323" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" t="s">
+        <v>14</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>44</v>
+      </c>
+      <c r="K323" t="s">
+        <v>63</v>
+      </c>
+      <c r="L323" t="s">
+        <v>11</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2010</v>
+      </c>
+      <c r="B324" t="s">
+        <v>38</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E324" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G324" t="s">
+        <v>14</v>
+      </c>
+      <c r="H324" t="s">
+        <v>14</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>44</v>
+      </c>
+      <c r="K324" t="s">
+        <v>63</v>
+      </c>
+      <c r="L324" t="s">
+        <v>11</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2011</v>
+      </c>
+      <c r="B325" t="s">
+        <v>39</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E325" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G325" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" t="s">
+        <v>14</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>44</v>
+      </c>
+      <c r="K325" t="s">
+        <v>63</v>
+      </c>
+      <c r="L325" t="s">
+        <v>11</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:P241"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
